--- a/natmiOut/OldD4/LR-pairs_lrc2p/Arf1-Insr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Arf1-Insr.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.1771071544413</v>
+        <v>50.41084233333333</v>
       </c>
       <c r="H2">
-        <v>44.1771071544413</v>
+        <v>151.232527</v>
       </c>
       <c r="I2">
-        <v>0.1436478315078347</v>
+        <v>0.1533822412306554</v>
       </c>
       <c r="J2">
-        <v>0.1436478315078347</v>
+        <v>0.1625332948695183</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.8612340185074</v>
+        <v>14.03654733333333</v>
       </c>
       <c r="N2">
-        <v>12.8612340185074</v>
+        <v>42.10964199999999</v>
       </c>
       <c r="O2">
-        <v>0.2966010895160291</v>
+        <v>0.3033248635033713</v>
       </c>
       <c r="P2">
-        <v>0.2966010895160291</v>
+        <v>0.3241347232362796</v>
       </c>
       <c r="Q2">
-        <v>568.1721133739471</v>
+        <v>707.594174525037</v>
       </c>
       <c r="R2">
-        <v>568.1721133739471</v>
+        <v>6368.347570725333</v>
       </c>
       <c r="S2">
-        <v>0.04260610333183874</v>
+        <v>0.0465246473851297</v>
       </c>
       <c r="T2">
-        <v>0.04260610333183874</v>
+        <v>0.05268268454921195</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.1771071544413</v>
+        <v>50.41084233333333</v>
       </c>
       <c r="H3">
-        <v>44.1771071544413</v>
+        <v>151.232527</v>
       </c>
       <c r="I3">
-        <v>0.1436478315078347</v>
+        <v>0.1533822412306554</v>
       </c>
       <c r="J3">
-        <v>0.1436478315078347</v>
+        <v>0.1625332948695183</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.44803308426988</v>
+        <v>5.85326</v>
       </c>
       <c r="N3">
-        <v>5.44803308426988</v>
+        <v>17.55978</v>
       </c>
       <c r="O3">
-        <v>0.1256405525463994</v>
+        <v>0.1264868951307928</v>
       </c>
       <c r="P3">
-        <v>0.1256405525463994</v>
+        <v>0.1351646359375356</v>
       </c>
       <c r="Q3">
-        <v>240.6783413447318</v>
+        <v>295.0677669960066</v>
       </c>
       <c r="R3">
-        <v>240.6783413447318</v>
+        <v>2655.60990296406</v>
       </c>
       <c r="S3">
-        <v>0.01804799292273643</v>
+        <v>0.01940084346146788</v>
       </c>
       <c r="T3">
-        <v>0.01804799292273643</v>
+        <v>0.02196875362876657</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.1771071544413</v>
+        <v>50.41084233333333</v>
       </c>
       <c r="H4">
-        <v>44.1771071544413</v>
+        <v>151.232527</v>
       </c>
       <c r="I4">
-        <v>0.1436478315078347</v>
+        <v>0.1533822412306554</v>
       </c>
       <c r="J4">
-        <v>0.1436478315078347</v>
+        <v>0.1625332948695183</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.91506572694855</v>
+        <v>9.056607</v>
       </c>
       <c r="N4">
-        <v>7.91506572694855</v>
+        <v>27.169821</v>
       </c>
       <c r="O4">
-        <v>0.1825343598309217</v>
+        <v>0.1957100999869824</v>
       </c>
       <c r="P4">
-        <v>0.1825343598309217</v>
+        <v>0.2091369575218488</v>
       </c>
       <c r="Q4">
-        <v>349.6647067538519</v>
+        <v>456.551187551963</v>
       </c>
       <c r="R4">
-        <v>349.6647067538519</v>
+        <v>4108.960687967667</v>
       </c>
       <c r="S4">
-        <v>0.02622066496538271</v>
+        <v>0.03001845376747901</v>
       </c>
       <c r="T4">
-        <v>0.02622066496538271</v>
+        <v>0.03399171878501258</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.1771071544413</v>
+        <v>50.41084233333333</v>
       </c>
       <c r="H5">
-        <v>44.1771071544413</v>
+        <v>151.232527</v>
       </c>
       <c r="I5">
-        <v>0.1436478315078347</v>
+        <v>0.1533822412306554</v>
       </c>
       <c r="J5">
-        <v>0.1436478315078347</v>
+        <v>0.1625332948695183</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.22595308907745</v>
+        <v>8.416348666666666</v>
       </c>
       <c r="N5">
-        <v>8.22595308907745</v>
+        <v>25.249046</v>
       </c>
       <c r="O5">
-        <v>0.1897039308216607</v>
+        <v>0.1818743420221987</v>
       </c>
       <c r="P5">
-        <v>0.1897039308216607</v>
+        <v>0.1943519856376384</v>
       </c>
       <c r="Q5">
-        <v>363.3988110635819</v>
+        <v>424.2752256576935</v>
       </c>
       <c r="R5">
-        <v>363.3988110635819</v>
+        <v>3818.477030919242</v>
       </c>
       <c r="S5">
-        <v>0.02725055829104384</v>
+        <v>0.0278962942017156</v>
       </c>
       <c r="T5">
-        <v>0.02725055829104384</v>
+        <v>0.03158866859011868</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>44.1771071544413</v>
+        <v>50.41084233333333</v>
       </c>
       <c r="H6">
-        <v>44.1771071544413</v>
+        <v>151.232527</v>
       </c>
       <c r="I6">
-        <v>0.1436478315078347</v>
+        <v>0.1533822412306554</v>
       </c>
       <c r="J6">
-        <v>0.1436478315078347</v>
+        <v>0.1625332948695183</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.91177333557564</v>
+        <v>8.912860999999999</v>
       </c>
       <c r="N6">
-        <v>8.91177333557564</v>
+        <v>17.825722</v>
       </c>
       <c r="O6">
-        <v>0.2055200672849891</v>
+        <v>0.1926037993566548</v>
       </c>
       <c r="P6">
-        <v>0.2055200672849891</v>
+        <v>0.1372116976666974</v>
       </c>
       <c r="Q6">
-        <v>393.6963655818179</v>
+        <v>449.3048306099157</v>
       </c>
       <c r="R6">
-        <v>393.6963655818179</v>
+        <v>2695.828983659494</v>
       </c>
       <c r="S6">
-        <v>0.02952251199683296</v>
+        <v>0.02954200241486318</v>
       </c>
       <c r="T6">
-        <v>0.02952251199683296</v>
+        <v>0.02230146931640853</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>68.15239469437211</v>
+        <v>72.399292</v>
       </c>
       <c r="H7">
-        <v>68.15239469437211</v>
+        <v>217.197876</v>
       </c>
       <c r="I7">
-        <v>0.2216067176079995</v>
+        <v>0.2202852631789851</v>
       </c>
       <c r="J7">
-        <v>0.2216067176079995</v>
+        <v>0.2334278684964451</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.8612340185074</v>
+        <v>14.03654733333333</v>
       </c>
       <c r="N7">
-        <v>12.8612340185074</v>
+        <v>42.10964199999999</v>
       </c>
       <c r="O7">
-        <v>0.2966010895160291</v>
+        <v>0.3033248635033713</v>
       </c>
       <c r="P7">
-        <v>0.2966010895160291</v>
+        <v>0.3241347232362796</v>
       </c>
       <c r="Q7">
-        <v>876.5238970860017</v>
+        <v>1016.236089057821</v>
       </c>
       <c r="R7">
-        <v>876.5238970860017</v>
+        <v>9146.124801520391</v>
       </c>
       <c r="S7">
-        <v>0.06572879388660366</v>
+        <v>0.06681799738556987</v>
       </c>
       <c r="T7">
-        <v>0.06572879388660366</v>
+        <v>0.0756620775507299</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>68.15239469437211</v>
+        <v>72.399292</v>
       </c>
       <c r="H8">
-        <v>68.15239469437211</v>
+        <v>217.197876</v>
       </c>
       <c r="I8">
-        <v>0.2216067176079995</v>
+        <v>0.2202852631789851</v>
       </c>
       <c r="J8">
-        <v>0.2216067176079995</v>
+        <v>0.2334278684964451</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.44803308426988</v>
+        <v>5.85326</v>
       </c>
       <c r="N8">
-        <v>5.44803308426988</v>
+        <v>17.55978</v>
       </c>
       <c r="O8">
-        <v>0.1256405525463994</v>
+        <v>0.1264868951307928</v>
       </c>
       <c r="P8">
-        <v>0.1256405525463994</v>
+        <v>0.1351646359375356</v>
       </c>
       <c r="Q8">
-        <v>371.2965010671583</v>
+        <v>423.77187989192</v>
       </c>
       <c r="R8">
-        <v>371.2965010671583</v>
+        <v>3813.94691902728</v>
       </c>
       <c r="S8">
-        <v>0.02784279044826296</v>
+        <v>0.02786319898257939</v>
       </c>
       <c r="T8">
-        <v>0.02784279044826296</v>
+        <v>0.03155119286299694</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>68.15239469437211</v>
+        <v>72.399292</v>
       </c>
       <c r="H9">
-        <v>68.15239469437211</v>
+        <v>217.197876</v>
       </c>
       <c r="I9">
-        <v>0.2216067176079995</v>
+        <v>0.2202852631789851</v>
       </c>
       <c r="J9">
-        <v>0.2216067176079995</v>
+        <v>0.2334278684964451</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.91506572694855</v>
+        <v>9.056607</v>
       </c>
       <c r="N9">
-        <v>7.91506572694855</v>
+        <v>27.169821</v>
       </c>
       <c r="O9">
-        <v>0.1825343598309217</v>
+        <v>0.1957100999869824</v>
       </c>
       <c r="P9">
-        <v>0.1825343598309217</v>
+        <v>0.2091369575218488</v>
       </c>
       <c r="Q9">
-        <v>539.4306834548948</v>
+        <v>655.691934722244</v>
       </c>
       <c r="R9">
-        <v>539.4306834548948</v>
+        <v>5901.227412500196</v>
       </c>
       <c r="S9">
-        <v>0.04045084033280804</v>
+        <v>0.04311205088241789</v>
       </c>
       <c r="T9">
-        <v>0.04045084033280804</v>
+        <v>0.04881839421815674</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>68.15239469437211</v>
+        <v>72.399292</v>
       </c>
       <c r="H10">
-        <v>68.15239469437211</v>
+        <v>217.197876</v>
       </c>
       <c r="I10">
-        <v>0.2216067176079995</v>
+        <v>0.2202852631789851</v>
       </c>
       <c r="J10">
-        <v>0.2216067176079995</v>
+        <v>0.2334278684964451</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.22595308907745</v>
+        <v>8.416348666666666</v>
       </c>
       <c r="N10">
-        <v>8.22595308907745</v>
+        <v>25.249046</v>
       </c>
       <c r="O10">
-        <v>0.1897039308216607</v>
+        <v>0.1818743420221987</v>
       </c>
       <c r="P10">
-        <v>0.1897039308216607</v>
+        <v>0.1943519856376384</v>
       </c>
       <c r="Q10">
-        <v>560.6184016641959</v>
+        <v>609.3376846918106</v>
       </c>
       <c r="R10">
-        <v>560.6184016641959</v>
+        <v>5484.039162226296</v>
       </c>
       <c r="S10">
-        <v>0.04203966542672324</v>
+        <v>0.04006423729786479</v>
       </c>
       <c r="T10">
-        <v>0.04203966542672324</v>
+        <v>0.04536716974544564</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>68.15239469437211</v>
+        <v>72.399292</v>
       </c>
       <c r="H11">
-        <v>68.15239469437211</v>
+        <v>217.197876</v>
       </c>
       <c r="I11">
-        <v>0.2216067176079995</v>
+        <v>0.2202852631789851</v>
       </c>
       <c r="J11">
-        <v>0.2216067176079995</v>
+        <v>0.2334278684964451</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.91177333557564</v>
+        <v>8.912860999999999</v>
       </c>
       <c r="N11">
-        <v>8.91177333557564</v>
+        <v>17.825722</v>
       </c>
       <c r="O11">
-        <v>0.2055200672849891</v>
+        <v>0.1926037993566548</v>
       </c>
       <c r="P11">
-        <v>0.2055200672849891</v>
+        <v>0.1372116976666974</v>
       </c>
       <c r="Q11">
-        <v>607.3586937929321</v>
+        <v>645.284826094412</v>
       </c>
       <c r="R11">
-        <v>607.3586937929321</v>
+        <v>3871.708956566472</v>
       </c>
       <c r="S11">
-        <v>0.04554462751360165</v>
+        <v>0.04242777863055315</v>
       </c>
       <c r="T11">
-        <v>0.04554462751360165</v>
+        <v>0.03202903411911582</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.3177413851197</v>
+        <v>63.396933</v>
       </c>
       <c r="H12">
-        <v>60.3177413851197</v>
+        <v>190.190799</v>
       </c>
       <c r="I12">
-        <v>0.1961312840411223</v>
+        <v>0.192894290605017</v>
       </c>
       <c r="J12">
-        <v>0.1961312840411223</v>
+        <v>0.2044027024380561</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.8612340185074</v>
+        <v>14.03654733333333</v>
       </c>
       <c r="N12">
-        <v>12.8612340185074</v>
+        <v>42.10964199999999</v>
       </c>
       <c r="O12">
-        <v>0.2966010895160291</v>
+        <v>0.3033248635033713</v>
       </c>
       <c r="P12">
-        <v>0.2966010895160291</v>
+        <v>0.3241347232362796</v>
       </c>
       <c r="Q12">
-        <v>775.7605874218332</v>
+        <v>889.8740508426619</v>
       </c>
       <c r="R12">
-        <v>775.7605874218332</v>
+        <v>8008.866457583957</v>
       </c>
       <c r="S12">
-        <v>0.05817275253477464</v>
+        <v>0.05850963436834643</v>
       </c>
       <c r="T12">
-        <v>0.05817275253477464</v>
+        <v>0.06625401338350695</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.3177413851197</v>
+        <v>63.396933</v>
       </c>
       <c r="H13">
-        <v>60.3177413851197</v>
+        <v>190.190799</v>
       </c>
       <c r="I13">
-        <v>0.1961312840411223</v>
+        <v>0.192894290605017</v>
       </c>
       <c r="J13">
-        <v>0.1961312840411223</v>
+        <v>0.2044027024380561</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.44803308426988</v>
+        <v>5.85326</v>
       </c>
       <c r="N13">
-        <v>5.44803308426988</v>
+        <v>17.55978</v>
       </c>
       <c r="O13">
-        <v>0.1256405525463994</v>
+        <v>0.1264868951307928</v>
       </c>
       <c r="P13">
-        <v>0.1256405525463994</v>
+        <v>0.1351646359375356</v>
       </c>
       <c r="Q13">
-        <v>328.6130506345667</v>
+        <v>371.0787320515799</v>
       </c>
       <c r="R13">
-        <v>328.6130506345667</v>
+        <v>3339.70858846422</v>
       </c>
       <c r="S13">
-        <v>0.02464204289856141</v>
+        <v>0.02439859990708547</v>
       </c>
       <c r="T13">
-        <v>0.02464204289856141</v>
+        <v>0.02762801685968828</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.3177413851197</v>
+        <v>63.396933</v>
       </c>
       <c r="H14">
-        <v>60.3177413851197</v>
+        <v>190.190799</v>
       </c>
       <c r="I14">
-        <v>0.1961312840411223</v>
+        <v>0.192894290605017</v>
       </c>
       <c r="J14">
-        <v>0.1961312840411223</v>
+        <v>0.2044027024380561</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.91506572694855</v>
+        <v>9.056607</v>
       </c>
       <c r="N14">
-        <v>7.91506572694855</v>
+        <v>27.169821</v>
       </c>
       <c r="O14">
-        <v>0.1825343598309217</v>
+        <v>0.1957100999869824</v>
       </c>
       <c r="P14">
-        <v>0.1825343598309217</v>
+        <v>0.2091369575218488</v>
       </c>
       <c r="Q14">
-        <v>477.4188875643071</v>
+        <v>574.1611071863309</v>
       </c>
       <c r="R14">
-        <v>477.4188875643071</v>
+        <v>5167.449964676979</v>
       </c>
       <c r="S14">
-        <v>0.03580069837526292</v>
+        <v>0.03775136090122592</v>
       </c>
       <c r="T14">
-        <v>0.03580069837526292</v>
+        <v>0.04274815929713884</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.3177413851197</v>
+        <v>63.396933</v>
       </c>
       <c r="H15">
-        <v>60.3177413851197</v>
+        <v>190.190799</v>
       </c>
       <c r="I15">
-        <v>0.1961312840411223</v>
+        <v>0.192894290605017</v>
       </c>
       <c r="J15">
-        <v>0.1961312840411223</v>
+        <v>0.2044027024380561</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.22595308907745</v>
+        <v>8.416348666666666</v>
       </c>
       <c r="N15">
-        <v>8.22595308907745</v>
+        <v>25.249046</v>
       </c>
       <c r="O15">
-        <v>0.1897039308216607</v>
+        <v>0.1818743420221987</v>
       </c>
       <c r="P15">
-        <v>0.1897039308216607</v>
+        <v>0.1943519856376384</v>
       </c>
       <c r="Q15">
-        <v>496.1709110731002</v>
+        <v>533.570692525306</v>
       </c>
       <c r="R15">
-        <v>496.1709110731002</v>
+        <v>4802.136232727754</v>
       </c>
       <c r="S15">
-        <v>0.03720687553970054</v>
+        <v>0.03508252218362626</v>
       </c>
       <c r="T15">
-        <v>0.03720687553970054</v>
+        <v>0.03972607108853556</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.3177413851197</v>
+        <v>63.396933</v>
       </c>
       <c r="H16">
-        <v>60.3177413851197</v>
+        <v>190.190799</v>
       </c>
       <c r="I16">
-        <v>0.1961312840411223</v>
+        <v>0.192894290605017</v>
       </c>
       <c r="J16">
-        <v>0.1961312840411223</v>
+        <v>0.2044027024380561</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.91177333557564</v>
+        <v>8.912860999999999</v>
       </c>
       <c r="N16">
-        <v>8.91177333557564</v>
+        <v>17.825722</v>
       </c>
       <c r="O16">
-        <v>0.2055200672849891</v>
+        <v>0.1926037993566548</v>
       </c>
       <c r="P16">
-        <v>0.2055200672849891</v>
+        <v>0.1372116976666974</v>
       </c>
       <c r="Q16">
-        <v>537.538039338057</v>
+        <v>565.048051655313</v>
       </c>
       <c r="R16">
-        <v>537.538039338057</v>
+        <v>3390.288309931878</v>
       </c>
       <c r="S16">
-        <v>0.04030891469282276</v>
+        <v>0.03715217324473297</v>
       </c>
       <c r="T16">
-        <v>0.04030891469282276</v>
+        <v>0.02804644180918647</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>84.89308056258101</v>
+        <v>86.94092833333333</v>
       </c>
       <c r="H17">
-        <v>84.89308056258101</v>
+        <v>260.822785</v>
       </c>
       <c r="I17">
-        <v>0.276041319097751</v>
+        <v>0.2645302840659494</v>
       </c>
       <c r="J17">
-        <v>0.276041319097751</v>
+        <v>0.2803126249625782</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.8612340185074</v>
+        <v>14.03654733333333</v>
       </c>
       <c r="N17">
-        <v>12.8612340185074</v>
+        <v>42.10964199999999</v>
       </c>
       <c r="O17">
-        <v>0.2966010895160291</v>
+        <v>0.3033248635033713</v>
       </c>
       <c r="P17">
-        <v>0.2966010895160291</v>
+        <v>0.3241347232362796</v>
       </c>
       <c r="Q17">
-        <v>1091.829775667356</v>
+        <v>1220.350455754774</v>
       </c>
       <c r="R17">
-        <v>1091.829775667356</v>
+        <v>10983.15410179297</v>
       </c>
       <c r="S17">
-        <v>0.08187415599583481</v>
+        <v>0.08023861230681212</v>
       </c>
       <c r="T17">
-        <v>0.08187415599583481</v>
+        <v>0.09085905511188033</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>84.89308056258101</v>
+        <v>86.94092833333333</v>
       </c>
       <c r="H18">
-        <v>84.89308056258101</v>
+        <v>260.822785</v>
       </c>
       <c r="I18">
-        <v>0.276041319097751</v>
+        <v>0.2645302840659494</v>
       </c>
       <c r="J18">
-        <v>0.276041319097751</v>
+        <v>0.2803126249625782</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.44803308426988</v>
+        <v>5.85326</v>
       </c>
       <c r="N18">
-        <v>5.44803308426988</v>
+        <v>17.55978</v>
       </c>
       <c r="O18">
-        <v>0.1256405525463994</v>
+        <v>0.1264868951307928</v>
       </c>
       <c r="P18">
-        <v>0.1256405525463994</v>
+        <v>0.1351646359375356</v>
       </c>
       <c r="Q18">
-        <v>462.5003115305296</v>
+        <v>508.8878581763666</v>
       </c>
       <c r="R18">
-        <v>462.5003115305296</v>
+        <v>4579.9907235873</v>
       </c>
       <c r="S18">
-        <v>0.03468198385707839</v>
+        <v>0.03345961429956858</v>
       </c>
       <c r="T18">
-        <v>0.03468198385707839</v>
+        <v>0.03788835390176184</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>84.89308056258101</v>
+        <v>86.94092833333333</v>
       </c>
       <c r="H19">
-        <v>84.89308056258101</v>
+        <v>260.822785</v>
       </c>
       <c r="I19">
-        <v>0.276041319097751</v>
+        <v>0.2645302840659494</v>
       </c>
       <c r="J19">
-        <v>0.276041319097751</v>
+        <v>0.2803126249625782</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.91506572694855</v>
+        <v>9.056607</v>
       </c>
       <c r="N19">
-        <v>7.91506572694855</v>
+        <v>27.169821</v>
       </c>
       <c r="O19">
-        <v>0.1825343598309217</v>
+        <v>0.1957100999869824</v>
       </c>
       <c r="P19">
-        <v>0.1825343598309217</v>
+        <v>0.2091369575218488</v>
       </c>
       <c r="Q19">
-        <v>671.934312415967</v>
+        <v>787.3898201301649</v>
       </c>
       <c r="R19">
-        <v>671.934312415967</v>
+        <v>7086.508381171485</v>
       </c>
       <c r="S19">
-        <v>0.05038702546839117</v>
+        <v>0.0517712483441318</v>
       </c>
       <c r="T19">
-        <v>0.05038702546839117</v>
+        <v>0.05862372953963664</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>84.89308056258101</v>
+        <v>86.94092833333333</v>
       </c>
       <c r="H20">
-        <v>84.89308056258101</v>
+        <v>260.822785</v>
       </c>
       <c r="I20">
-        <v>0.276041319097751</v>
+        <v>0.2645302840659494</v>
       </c>
       <c r="J20">
-        <v>0.276041319097751</v>
+        <v>0.2803126249625782</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.22595308907745</v>
+        <v>8.416348666666666</v>
       </c>
       <c r="N20">
-        <v>8.22595308907745</v>
+        <v>25.249046</v>
       </c>
       <c r="O20">
-        <v>0.1897039308216607</v>
+        <v>0.1818743420221987</v>
       </c>
       <c r="P20">
-        <v>0.1897039308216607</v>
+        <v>0.1943519856376384</v>
       </c>
       <c r="Q20">
-        <v>698.3264982950641</v>
+        <v>731.7251662570121</v>
       </c>
       <c r="R20">
-        <v>698.3264982950641</v>
+        <v>6585.52649631311</v>
       </c>
       <c r="S20">
-        <v>0.05236612330203972</v>
+        <v>0.04811127135943986</v>
       </c>
       <c r="T20">
-        <v>0.05236612330203972</v>
+        <v>0.05447931526077571</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>84.89308056258101</v>
+        <v>86.94092833333333</v>
       </c>
       <c r="H21">
-        <v>84.89308056258101</v>
+        <v>260.822785</v>
       </c>
       <c r="I21">
-        <v>0.276041319097751</v>
+        <v>0.2645302840659494</v>
       </c>
       <c r="J21">
-        <v>0.276041319097751</v>
+        <v>0.2803126249625782</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.91177333557564</v>
+        <v>8.912860999999999</v>
       </c>
       <c r="N21">
-        <v>8.91177333557564</v>
+        <v>17.825722</v>
       </c>
       <c r="O21">
-        <v>0.2055200672849891</v>
+        <v>0.1926037993566548</v>
       </c>
       <c r="P21">
-        <v>0.2055200672849891</v>
+        <v>0.1372116976666974</v>
       </c>
       <c r="Q21">
-        <v>756.5478917324841</v>
+        <v>774.8924094459616</v>
       </c>
       <c r="R21">
-        <v>756.5478917324841</v>
+        <v>4649.35445667577</v>
       </c>
       <c r="S21">
-        <v>0.05673203047440695</v>
+        <v>0.05094953775599702</v>
       </c>
       <c r="T21">
-        <v>0.05673203047440695</v>
+        <v>0.03846217114852361</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>49.9972609391931</v>
+        <v>55.513536</v>
       </c>
       <c r="H22">
-        <v>49.9972609391931</v>
+        <v>111.027072</v>
       </c>
       <c r="I22">
-        <v>0.1625728477452924</v>
+        <v>0.1689079209193933</v>
       </c>
       <c r="J22">
-        <v>0.1625728477452924</v>
+        <v>0.1193235092334022</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.8612340185074</v>
+        <v>14.03654733333333</v>
       </c>
       <c r="N22">
-        <v>12.8612340185074</v>
+        <v>42.10964199999999</v>
       </c>
       <c r="O22">
-        <v>0.2966010895160291</v>
+        <v>0.3033248635033713</v>
       </c>
       <c r="P22">
-        <v>0.2966010895160291</v>
+        <v>0.3241347232362796</v>
       </c>
       <c r="Q22">
-        <v>643.0264732233414</v>
+        <v>779.2183757047039</v>
       </c>
       <c r="R22">
-        <v>643.0264732233414</v>
+        <v>4675.310254228223</v>
       </c>
       <c r="S22">
-        <v>0.04821928376697724</v>
+        <v>0.05123397205751321</v>
       </c>
       <c r="T22">
-        <v>0.04821928376697724</v>
+        <v>0.03867689264095046</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>49.9972609391931</v>
+        <v>55.513536</v>
       </c>
       <c r="H23">
-        <v>49.9972609391931</v>
+        <v>111.027072</v>
       </c>
       <c r="I23">
-        <v>0.1625728477452924</v>
+        <v>0.1689079209193933</v>
       </c>
       <c r="J23">
-        <v>0.1625728477452924</v>
+        <v>0.1193235092334022</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.44803308426988</v>
+        <v>5.85326</v>
       </c>
       <c r="N23">
-        <v>5.44803308426988</v>
+        <v>17.55978</v>
       </c>
       <c r="O23">
-        <v>0.1256405525463994</v>
+        <v>0.1264868951307928</v>
       </c>
       <c r="P23">
-        <v>0.1256405525463994</v>
+        <v>0.1351646359375356</v>
       </c>
       <c r="Q23">
-        <v>272.3867317195982</v>
+        <v>324.93515972736</v>
       </c>
       <c r="R23">
-        <v>272.3867317195982</v>
+        <v>1949.61095836416</v>
       </c>
       <c r="S23">
-        <v>0.0204257424197602</v>
+        <v>0.02136463848009155</v>
       </c>
       <c r="T23">
-        <v>0.0204257424197602</v>
+        <v>0.01612831868432197</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>49.9972609391931</v>
+        <v>55.513536</v>
       </c>
       <c r="H24">
-        <v>49.9972609391931</v>
+        <v>111.027072</v>
       </c>
       <c r="I24">
-        <v>0.1625728477452924</v>
+        <v>0.1689079209193933</v>
       </c>
       <c r="J24">
-        <v>0.1625728477452924</v>
+        <v>0.1193235092334022</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.91506572694855</v>
+        <v>9.056607</v>
       </c>
       <c r="N24">
-        <v>7.91506572694855</v>
+        <v>27.169821</v>
       </c>
       <c r="O24">
-        <v>0.1825343598309217</v>
+        <v>0.1957100999869824</v>
       </c>
       <c r="P24">
-        <v>0.1825343598309217</v>
+        <v>0.2091369575218488</v>
       </c>
       <c r="Q24">
-        <v>395.7316065011107</v>
+        <v>502.764278732352</v>
       </c>
       <c r="R24">
-        <v>395.7316065011107</v>
+        <v>3016.585672394112</v>
       </c>
       <c r="S24">
-        <v>0.02967513068907685</v>
+        <v>0.03305698609172777</v>
       </c>
       <c r="T24">
-        <v>0.02967513068907685</v>
+        <v>0.02495495568190396</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>49.9972609391931</v>
+        <v>55.513536</v>
       </c>
       <c r="H25">
-        <v>49.9972609391931</v>
+        <v>111.027072</v>
       </c>
       <c r="I25">
-        <v>0.1625728477452924</v>
+        <v>0.1689079209193933</v>
       </c>
       <c r="J25">
-        <v>0.1625728477452924</v>
+        <v>0.1193235092334022</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.22595308907745</v>
+        <v>8.416348666666666</v>
       </c>
       <c r="N25">
-        <v>8.22595308907745</v>
+        <v>25.249046</v>
       </c>
       <c r="O25">
-        <v>0.1897039308216607</v>
+        <v>0.1818743420221987</v>
       </c>
       <c r="P25">
-        <v>0.1897039308216607</v>
+        <v>0.1943519856376384</v>
       </c>
       <c r="Q25">
-        <v>411.2751230681668</v>
+        <v>467.221274695552</v>
       </c>
       <c r="R25">
-        <v>411.2751230681668</v>
+        <v>2803.327648173312</v>
       </c>
       <c r="S25">
-        <v>0.03084070826215332</v>
+        <v>0.03072001697955223</v>
       </c>
       <c r="T25">
-        <v>0.03084070826215332</v>
+        <v>0.02319076095276279</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>49.9972609391931</v>
+        <v>55.513536</v>
       </c>
       <c r="H26">
-        <v>49.9972609391931</v>
+        <v>111.027072</v>
       </c>
       <c r="I26">
-        <v>0.1625728477452924</v>
+        <v>0.1689079209193933</v>
       </c>
       <c r="J26">
-        <v>0.1625728477452924</v>
+        <v>0.1193235092334022</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.91177333557564</v>
+        <v>8.912860999999999</v>
       </c>
       <c r="N26">
-        <v>8.91177333557564</v>
+        <v>17.825722</v>
       </c>
       <c r="O26">
-        <v>0.2055200672849891</v>
+        <v>0.1926037993566548</v>
       </c>
       <c r="P26">
-        <v>0.2055200672849891</v>
+        <v>0.1372116976666974</v>
       </c>
       <c r="Q26">
-        <v>445.5642568897185</v>
+        <v>494.784429986496</v>
       </c>
       <c r="R26">
-        <v>445.5642568897185</v>
+        <v>1979.137719945984</v>
       </c>
       <c r="S26">
-        <v>0.03341198260732479</v>
+        <v>0.03253230731050855</v>
       </c>
       <c r="T26">
-        <v>0.03341198260732479</v>
+        <v>0.01637258127346295</v>
       </c>
     </row>
   </sheetData>
